--- a/VS/10-2-23/Data/SUMMARY.xlsx
+++ b/VS/10-2-23/Data/SUMMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\10-2-23\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775B0AE-D4A2-407B-82DC-1AD33472A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E33E28-20E9-43AE-917F-FF2B230C257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,14 +409,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
